--- a/WebApplication1/Names.xlsx
+++ b/WebApplication1/Names.xlsx
@@ -25,7 +25,7 @@
     <x:t>Bren</x:t>
   </x:si>
   <x:si>
-    <x:t>Web</x:t>
+    <x:t>Something</x:t>
   </x:si>
 </x:sst>
 </file>
